--- a/DownloadDataForDK/ModelData/id2tech.xlsx
+++ b/DownloadDataForDK/ModelData/id2tech.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,574 +508,346 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Coal</t>
+          <t>id_DK_Central_IndustryH_Biomass</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BP_Coal</t>
+          <t>IndustryH_Biomass</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Natgas</t>
+          <t>id_DK_Central_BP_Coal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BH_Natgas</t>
+          <t>BP_Coal</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Natgas</t>
+          <t>id_DK_Central_BH_Natgas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BP_Natgas</t>
+          <t>BH_Natgas</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Natgas</t>
+          <t>id_DK_Central_BP_Natgas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IndustryH_Natgas</t>
+          <t>BP_Natgas</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Oil</t>
+          <t>id_DK_Central_IndustryH_Natgas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BH_Oil</t>
+          <t>IndustryH_Natgas</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Oil</t>
+          <t>id_DK_Central_BH_Oil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BP_Oil</t>
+          <t>BH_Oil</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Oil</t>
+          <t>id_DK_Central_BP_Oil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IndustryH_Oil</t>
+          <t>BP_Oil</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Waste</t>
+          <t>id_DK_Central_IndustryH_Oil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BH_Waste</t>
+          <t>IndustryH_Oil</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Waste</t>
+          <t>id_DK_Central_BH_Waste</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BP_Waste</t>
+          <t>BH_Waste</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>id_DK_Central_EP</t>
+          <t>id_DK_Central_BP_Waste</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EP</t>
+          <t>BP_Waste</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>id_DK_Central_HPstandard</t>
+          <t>id_DK_Central_EP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HPstandard</t>
+          <t>EP</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>id_DK_Central_HPsurplusheat</t>
+          <t>id_DK_Central_GT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HPsurplusheat</t>
+          <t>GT</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>id_DK_Central_IH</t>
+          <t>id_DK_Central_HPstandard</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IH</t>
+          <t>HPstandard</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH</t>
+          <t>id_DK_Central_HPsurplusheat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IndustryH</t>
+          <t>HPsurplusheat</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>id_DK_Central_SH</t>
+          <t>id_DK_Central_IH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SH</t>
+          <t>IH</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biogas</t>
+          <t>id_DK_Central_IndustryH</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BH_Biogas</t>
+          <t>IndustryH</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biogas</t>
+          <t>id_DK_Central_SH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BP_Biogas</t>
+          <t>SH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biogas</t>
+          <t>id_DK_nan_CD_Biogas</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>IndustryH_Biogas</t>
+          <t>CD_Biogas</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biogas</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BH_Biomass</t>
+          <t>IndustryE_Biogas</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biomass</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BP_Biomass</t>
+          <t>IndustryE_Biomass</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biomass</t>
+          <t>id_DK_nan_CD_Coal</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IndustryH_Biomass</t>
+          <t>CD_Coal</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Natgas</t>
+          <t>id_DK_nan_CD_Natgas</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BH_Natgas</t>
+          <t>CD_Natgas</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Natgas</t>
+          <t>id_DK_nan_IndustryE_Natgas</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BP_Natgas</t>
+          <t>IndustryE_Natgas</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Natgas</t>
+          <t>id_DK_nan_CD_Oil</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IndustryH_Natgas</t>
+          <t>CD_Oil</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Oil</t>
+          <t>id_DK_nan_IndustryE_Oil</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BH_Oil</t>
+          <t>IndustryE_Oil</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Oil</t>
+          <t>id_DK_nan_PV</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BP_Oil</t>
+          <t>PV</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Oil</t>
+          <t>id_DK_nan_ROR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>IndustryH_Oil</t>
+          <t>ROR</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Waste</t>
+          <t>id_DK_nan_WL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BH_Waste</t>
+          <t>WL</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Waste</t>
+          <t>id_DK_nan_WS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>BP_Waste</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_EP</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>EP</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_GT</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPstandard</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>HPstandard</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPsurplusheat</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>HPsurplusheat</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IH</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>IH</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>IndustryH</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_SH</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>SH</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Biogas</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>CD_Biogas</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Biogas</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>IndustryE_Biogas</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Biomass</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>IndustryE_Biomass</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Coal</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>CD_Coal</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Natgas</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>CD_Natgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Natgas</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>IndustryE_Natgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Oil</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>CD_Oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>IndustryE_Oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>id_DK_nan_PV</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>PV</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>id_DK_nan_ROR</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ROR</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>id_DK_nan_WL</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>WL</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>id_DK_nan_WS</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
         <is>
           <t>WS</t>
         </is>
